--- a/output/StructureDefinition-org-alias-type.xlsx
+++ b/output/StructureDefinition-org-alias-type.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/StructureDefinition/org-alias-type</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/org-alias-type</t>
   </si>
   <si>
     <t>Version</t>

--- a/output/StructureDefinition-org-alias-type.xlsx
+++ b/output/StructureDefinition-org-alias-type.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NatlDir Org Alias Type</t>
+    <t>NatlDirEndpointQry Org Alias Type</t>
   </si>
   <si>
     <t>Status</t>

--- a/output/StructureDefinition-org-alias-type.xlsx
+++ b/output/StructureDefinition-org-alias-type.xlsx
@@ -360,7 +360,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vhdir/ValueSet/aliastype</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/OrgAliasTypeVS</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.33984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.4296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
